--- a/NEW HR/AMBAT, JAIME.xlsx
+++ b/NEW HR/AMBAT, JAIME.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="62">
   <si>
     <t>PERIOD</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>2/14,15/2023</t>
+  </si>
+  <si>
+    <t>5/26,27/2023</t>
   </si>
 </sst>
 </file>
@@ -604,17 +607,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -624,6 +624,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1154,7 +1157,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1197,7 +1200,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1261,7 +1264,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1321,7 +1324,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1387,7 +1390,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1450,7 +1453,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1548,7 +1551,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1607,7 +1610,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1672,7 +1675,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1715,7 +1718,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1790,7 +1793,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1976,7 +1979,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2042,7 +2045,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2100,7 +2103,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2166,7 +2169,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2222,7 +2225,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2297,7 +2300,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2340,7 +2343,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2409,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2462,7 +2465,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2937,10 +2940,10 @@
   </sheetPr>
   <dimension ref="A2:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A59" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3570" topLeftCell="A68" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78:C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2970,14 +2973,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -2988,14 +2991,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3008,16 +3011,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3043,18 +3046,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3101,7 +3104,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>57.5</v>
+        <v>60</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3111,7 +3114,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>77.5</v>
+        <v>80</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4491,15 +4494,19 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
+      <c r="A78" s="40">
+        <v>44986</v>
+      </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
@@ -4507,15 +4514,19 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>45017</v>
+      </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
@@ -4523,7 +4534,9 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>45047</v>
+      </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
       <c r="D80" s="39"/>
@@ -5356,17 +5369,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5401,10 +5414,10 @@
   </sheetPr>
   <dimension ref="A2:K73"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A6" activePane="bottomLeft"/>
       <selection activeCell="O5" sqref="O5"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5434,14 +5447,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5452,14 +5465,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5472,16 +5485,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5507,18 +5520,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5575,7 +5588,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>44.545000000000002</v>
+        <v>42.545000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5749,8 +5762,12 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C18" s="13"/>
       <c r="D18" s="39"/>
       <c r="E18" s="9"/>
@@ -5759,10 +5776,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H18" s="39"/>
+      <c r="H18" s="39">
+        <v>2</v>
+      </c>
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="20"/>
+      <c r="K18" s="20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>

--- a/NEW HR/AMBAT, JAIME.xlsx
+++ b/NEW HR/AMBAT, JAIME.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29B0245-C2C4-4E43-94DF-F34D480B976A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
   <si>
     <t>PERIOD</t>
   </si>
@@ -224,11 +225,17 @@
   <si>
     <t>5/26,27/2023</t>
   </si>
+  <si>
+    <t>5/30,31 5/1</t>
+  </si>
+  <si>
+    <t>VL(5-0-0)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -607,14 +614,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -624,9 +634,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1157,7 +1164,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1200,7 +1207,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1264,7 +1271,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1324,7 +1331,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1390,7 +1397,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1453,7 +1460,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1551,7 +1558,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1610,7 +1617,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1675,7 +1682,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1718,7 +1725,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1793,7 +1800,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1979,7 +1986,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2045,7 +2052,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2103,7 +2110,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2169,7 +2176,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2225,7 +2232,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2300,7 +2307,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2343,7 +2350,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2409,7 +2416,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2465,7 +2472,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2561,25 +2568,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K131" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K131" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2591,25 +2598,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K73" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K73" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2916,7 +2923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2926,7 +2933,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2934,34 +2941,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K131"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A68" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3576" topLeftCell="A71" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="C78" sqref="C78:C79"/>
+      <selection pane="bottomLeft" activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2973,16 +2980,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2991,16 +2998,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3011,18 +3018,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3030,7 +3037,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3043,24 +3050,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3095,7 +3102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3104,7 +3111,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3119,7 +3126,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3141,7 +3148,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43131</v>
       </c>
@@ -3161,7 +3168,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43159</v>
       </c>
@@ -3181,7 +3188,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43190</v>
       </c>
@@ -3201,7 +3208,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43220</v>
       </c>
@@ -3221,7 +3228,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43251</v>
       </c>
@@ -3241,7 +3248,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43281</v>
       </c>
@@ -3261,7 +3268,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43312</v>
       </c>
@@ -3281,7 +3288,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43343</v>
       </c>
@@ -3301,7 +3308,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43373</v>
       </c>
@@ -3321,7 +3328,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43404</v>
       </c>
@@ -3347,7 +3354,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43434</v>
       </c>
@@ -3371,7 +3378,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43465</v>
       </c>
@@ -3391,7 +3398,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>52</v>
       </c>
@@ -3409,7 +3416,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43496</v>
       </c>
@@ -3429,7 +3436,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43524</v>
       </c>
@@ -3449,7 +3456,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43555</v>
       </c>
@@ -3469,7 +3476,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43585</v>
       </c>
@@ -3489,7 +3496,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43616</v>
       </c>
@@ -3509,7 +3516,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43646</v>
       </c>
@@ -3529,7 +3536,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43677</v>
       </c>
@@ -3549,7 +3556,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43708</v>
       </c>
@@ -3569,7 +3576,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43738</v>
       </c>
@@ -3589,7 +3596,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43769</v>
       </c>
@@ -3609,7 +3616,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43799</v>
       </c>
@@ -3629,7 +3636,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43830</v>
       </c>
@@ -3653,7 +3660,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>53</v>
       </c>
@@ -3671,7 +3678,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43861</v>
       </c>
@@ -3691,7 +3698,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43890</v>
       </c>
@@ -3711,7 +3718,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43921</v>
       </c>
@@ -3731,7 +3738,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43951</v>
       </c>
@@ -3751,7 +3758,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43982</v>
       </c>
@@ -3771,7 +3778,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>44012</v>
       </c>
@@ -3791,7 +3798,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44043</v>
       </c>
@@ -3811,7 +3818,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44074</v>
       </c>
@@ -3831,7 +3838,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44104</v>
       </c>
@@ -3851,7 +3858,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44135</v>
       </c>
@@ -3871,7 +3878,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44165</v>
       </c>
@@ -3891,7 +3898,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44196</v>
       </c>
@@ -3915,7 +3922,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>54</v>
       </c>
@@ -3933,7 +3940,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44227</v>
       </c>
@@ -3953,7 +3960,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44255</v>
       </c>
@@ -3973,7 +3980,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44286</v>
       </c>
@@ -3993,7 +4000,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44316</v>
       </c>
@@ -4013,7 +4020,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44347</v>
       </c>
@@ -4033,7 +4040,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44377</v>
       </c>
@@ -4053,7 +4060,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44408</v>
       </c>
@@ -4073,7 +4080,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44439</v>
       </c>
@@ -4093,7 +4100,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44469</v>
       </c>
@@ -4113,7 +4120,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44500</v>
       </c>
@@ -4133,7 +4140,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44530</v>
       </c>
@@ -4153,7 +4160,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44561</v>
       </c>
@@ -4177,7 +4184,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>55</v>
       </c>
@@ -4195,7 +4202,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44592</v>
       </c>
@@ -4215,7 +4222,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44620</v>
       </c>
@@ -4235,7 +4242,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44651</v>
       </c>
@@ -4255,7 +4262,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44681</v>
       </c>
@@ -4275,7 +4282,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44712</v>
       </c>
@@ -4295,7 +4302,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44742</v>
       </c>
@@ -4315,7 +4322,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44773</v>
       </c>
@@ -4335,7 +4342,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44804</v>
       </c>
@@ -4355,7 +4362,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="49"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44834</v>
       </c>
@@ -4375,7 +4382,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44865</v>
       </c>
@@ -4395,7 +4402,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="49"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44895</v>
       </c>
@@ -4415,15 +4422,19 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44925</v>
       </c>
-      <c r="B74" s="20"/>
+      <c r="B74" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C74" s="13">
         <v>1.25</v>
       </c>
-      <c r="D74" s="39"/>
+      <c r="D74" s="39">
+        <v>5</v>
+      </c>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
       <c r="G74" s="13">
@@ -4435,7 +4446,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
         <v>58</v>
       </c>
@@ -4453,7 +4464,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44956</v>
       </c>
@@ -4473,7 +4484,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44985</v>
       </c>
@@ -4493,7 +4504,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44986</v>
       </c>
@@ -4513,7 +4524,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>45017</v>
       </c>
@@ -4533,13 +4544,17 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>45047</v>
       </c>
-      <c r="B80" s="20"/>
+      <c r="B80" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C80" s="13"/>
-      <c r="D80" s="39"/>
+      <c r="D80" s="39">
+        <v>3</v>
+      </c>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
       <c r="G80" s="13" t="str">
@@ -4549,9 +4564,11 @@
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K80" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4567,7 +4584,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4583,7 +4600,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4599,7 +4616,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4615,7 +4632,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4631,7 +4648,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4647,7 +4664,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4663,7 +4680,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4679,7 +4696,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4695,7 +4712,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4711,7 +4728,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4727,7 +4744,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4743,7 +4760,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4759,7 +4776,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4775,7 +4792,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4791,7 +4808,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4807,7 +4824,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4823,7 +4840,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4839,7 +4856,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4855,7 +4872,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4871,7 +4888,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4887,7 +4904,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4903,7 +4920,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4919,7 +4936,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4935,7 +4952,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4951,7 +4968,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4967,7 +4984,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4983,7 +5000,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4999,7 +5016,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5015,7 +5032,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5031,7 +5048,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5047,7 +5064,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5063,7 +5080,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5079,7 +5096,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5095,7 +5112,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5111,7 +5128,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5127,7 +5144,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5143,7 +5160,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5159,7 +5176,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5175,7 +5192,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5191,7 +5208,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5207,7 +5224,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5223,7 +5240,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5239,7 +5256,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5255,7 +5272,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5271,7 +5288,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5287,7 +5304,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5303,7 +5320,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5319,7 +5336,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5335,7 +5352,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5351,7 +5368,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="41"/>
       <c r="B131" s="15"/>
       <c r="C131" s="42"/>
@@ -5369,23 +5386,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5408,34 +5425,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A6" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A6" activePane="bottomLeft"/>
       <selection activeCell="O5" sqref="O5"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5447,16 +5464,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5465,16 +5482,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5485,18 +5502,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5504,7 +5521,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5517,24 +5534,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5569,7 +5586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5593,7 +5610,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -5615,7 +5632,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43404</v>
       </c>
@@ -5637,7 +5654,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
         <v>55</v>
       </c>
@@ -5655,7 +5672,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>44804</v>
       </c>
@@ -5679,7 +5696,7 @@
         <v>44775</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>44834</v>
       </c>
@@ -5697,7 +5714,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>44865</v>
       </c>
@@ -5719,7 +5736,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="48" t="s">
         <v>58</v>
       </c>
@@ -5737,7 +5754,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>44958</v>
       </c>
@@ -5761,7 +5778,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>45047</v>
       </c>
@@ -5785,7 +5802,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13"/>
@@ -5801,7 +5818,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -5817,7 +5834,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
@@ -5833,7 +5850,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -5849,7 +5866,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -5865,7 +5882,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -5881,7 +5898,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -5897,7 +5914,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -5913,7 +5930,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -5929,7 +5946,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -5945,7 +5962,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -5961,7 +5978,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -5977,7 +5994,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -5993,7 +6010,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6009,7 +6026,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6025,7 +6042,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6041,7 +6058,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6057,7 +6074,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6073,7 +6090,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6089,7 +6106,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6105,7 +6122,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6121,7 +6138,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6137,7 +6154,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6153,7 +6170,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6169,7 +6186,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6185,7 +6202,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6201,7 +6218,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6217,7 +6234,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6233,7 +6250,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6249,7 +6266,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6265,7 +6282,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6281,7 +6298,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6297,7 +6314,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6313,7 +6330,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6329,7 +6346,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6345,7 +6362,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6361,7 +6378,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6377,7 +6394,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6393,7 +6410,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6409,7 +6426,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6425,7 +6442,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6441,7 +6458,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6457,7 +6474,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6473,7 +6490,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6489,7 +6506,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6505,7 +6522,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6521,7 +6538,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6537,7 +6554,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6553,7 +6570,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6569,7 +6586,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6585,7 +6602,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6601,7 +6618,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6617,7 +6634,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -6633,7 +6650,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -6649,7 +6666,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="41"/>
       <c r="B73" s="15"/>
       <c r="C73" s="42"/>
@@ -6680,10 +6697,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6706,28 +6723,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -6740,7 +6757,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6769,7 +6786,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>42.674999999999997</v>
       </c>
@@ -6793,17 +6810,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6824,7 +6841,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6851,7 +6868,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6877,7 +6894,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6903,7 +6920,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6929,7 +6946,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6955,7 +6972,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6981,7 +6998,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7007,7 +7024,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7033,7 +7050,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7053,7 +7070,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7073,7 +7090,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7093,7 +7110,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7114,7 +7131,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7135,7 +7152,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7156,7 +7173,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7177,7 +7194,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7198,7 +7215,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7219,7 +7236,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7240,7 +7257,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7261,7 +7278,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7282,7 +7299,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7303,7 +7320,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7324,7 +7341,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7345,7 +7362,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7366,7 +7383,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7387,7 +7404,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7408,7 +7425,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7429,7 +7446,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7450,7 +7467,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7471,7 +7488,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7492,7 +7509,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7513,7 +7530,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7522,7 +7539,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7531,7 +7548,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7540,7 +7557,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7549,7 +7566,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7558,7 +7575,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7567,7 +7584,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7576,7 +7593,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7585,7 +7602,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7594,7 +7611,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7603,7 +7620,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7612,7 +7629,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7621,7 +7638,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7630,7 +7647,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7639,7 +7656,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7648,7 +7665,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7657,7 +7674,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7666,7 +7683,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7675,7 +7692,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7684,7 +7701,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7693,7 +7710,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7702,7 +7719,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7711,7 +7728,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7720,7 +7737,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7729,7 +7746,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7738,7 +7755,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7747,7 +7764,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7756,7 +7773,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7765,7 +7782,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7774,7 +7791,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/AMBAT, JAIME.xlsx
+++ b/NEW HR/AMBAT, JAIME.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29B0245-C2C4-4E43-94DF-F34D480B976A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
   <si>
     <t>PERIOD</t>
   </si>
@@ -231,11 +230,17 @@
   <si>
     <t>VL(5-0-0)</t>
   </si>
+  <si>
+    <t>9/6-8/2023</t>
+  </si>
+  <si>
+    <t>9/20,21/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1164,7 +1169,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1207,7 +1212,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1271,7 +1276,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1331,7 +1336,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1397,7 +1402,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1460,7 +1465,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1558,7 +1563,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1617,7 +1622,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1682,7 +1687,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1725,7 +1730,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1800,7 +1805,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1986,7 +1991,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2052,7 +2057,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2110,7 +2115,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2176,7 +2181,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2232,7 +2237,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,7 +2312,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2350,7 +2355,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2416,7 +2421,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2472,7 +2477,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2568,25 +2573,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K131" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K131" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2598,25 +2603,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K73" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K73" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2923,7 +2928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2933,7 +2938,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2941,34 +2946,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A71" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A71" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="K62" sqref="K62"/>
+      <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2989,7 +2994,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3007,7 +3012,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3029,7 +3034,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3037,7 +3042,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3050,7 +3055,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3067,7 +3072,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3102,7 +3107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3111,7 +3116,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>52</v>
+        <v>58.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3121,12 +3126,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>80</v>
+        <v>86.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3148,7 +3153,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43131</v>
       </c>
@@ -3168,7 +3173,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43159</v>
       </c>
@@ -3188,7 +3193,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43190</v>
       </c>
@@ -3208,7 +3213,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43220</v>
       </c>
@@ -3228,7 +3233,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43251</v>
       </c>
@@ -3248,7 +3253,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43281</v>
       </c>
@@ -3268,7 +3273,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43312</v>
       </c>
@@ -3288,7 +3293,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43343</v>
       </c>
@@ -3308,7 +3313,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43373</v>
       </c>
@@ -3328,7 +3333,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43404</v>
       </c>
@@ -3354,7 +3359,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43434</v>
       </c>
@@ -3378,7 +3383,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43465</v>
       </c>
@@ -3398,7 +3403,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>52</v>
       </c>
@@ -3416,7 +3421,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43496</v>
       </c>
@@ -3436,7 +3441,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43524</v>
       </c>
@@ -3456,7 +3461,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43555</v>
       </c>
@@ -3476,7 +3481,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43585</v>
       </c>
@@ -3496,7 +3501,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43616</v>
       </c>
@@ -3516,7 +3521,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43646</v>
       </c>
@@ -3536,7 +3541,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43677</v>
       </c>
@@ -3556,7 +3561,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43708</v>
       </c>
@@ -3576,7 +3581,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43738</v>
       </c>
@@ -3596,7 +3601,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43769</v>
       </c>
@@ -3616,7 +3621,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43799</v>
       </c>
@@ -3636,7 +3641,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43830</v>
       </c>
@@ -3660,7 +3665,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>53</v>
       </c>
@@ -3678,7 +3683,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43861</v>
       </c>
@@ -3698,7 +3703,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43890</v>
       </c>
@@ -3718,7 +3723,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43921</v>
       </c>
@@ -3738,7 +3743,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43951</v>
       </c>
@@ -3758,7 +3763,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43982</v>
       </c>
@@ -3778,7 +3783,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>44012</v>
       </c>
@@ -3798,7 +3803,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44043</v>
       </c>
@@ -3818,7 +3823,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44074</v>
       </c>
@@ -3838,7 +3843,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44104</v>
       </c>
@@ -3858,7 +3863,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44135</v>
       </c>
@@ -3878,7 +3883,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44165</v>
       </c>
@@ -3898,7 +3903,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44196</v>
       </c>
@@ -3922,7 +3927,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>54</v>
       </c>
@@ -3940,7 +3945,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44227</v>
       </c>
@@ -3960,7 +3965,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44255</v>
       </c>
@@ -3980,7 +3985,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44286</v>
       </c>
@@ -4000,7 +4005,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44316</v>
       </c>
@@ -4020,7 +4025,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44347</v>
       </c>
@@ -4040,7 +4045,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44377</v>
       </c>
@@ -4060,7 +4065,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44408</v>
       </c>
@@ -4080,7 +4085,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44439</v>
       </c>
@@ -4100,7 +4105,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44469</v>
       </c>
@@ -4120,7 +4125,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44500</v>
       </c>
@@ -4140,7 +4145,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44530</v>
       </c>
@@ -4160,7 +4165,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44561</v>
       </c>
@@ -4184,7 +4189,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>55</v>
       </c>
@@ -4202,7 +4207,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44592</v>
       </c>
@@ -4222,7 +4227,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44620</v>
       </c>
@@ -4242,7 +4247,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44651</v>
       </c>
@@ -4262,7 +4267,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44681</v>
       </c>
@@ -4282,7 +4287,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44712</v>
       </c>
@@ -4302,7 +4307,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44742</v>
       </c>
@@ -4322,7 +4327,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44773</v>
       </c>
@@ -4342,7 +4347,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44804</v>
       </c>
@@ -4362,7 +4367,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="49"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44834</v>
       </c>
@@ -4382,7 +4387,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44865</v>
       </c>
@@ -4402,7 +4407,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="49"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44895</v>
       </c>
@@ -4422,7 +4427,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44925</v>
       </c>
@@ -4446,7 +4451,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>58</v>
       </c>
@@ -4464,7 +4469,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44956</v>
       </c>
@@ -4484,7 +4489,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44985</v>
       </c>
@@ -4504,7 +4509,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44986</v>
       </c>
@@ -4524,7 +4529,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45017</v>
       </c>
@@ -4544,22 +4549,24 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45047</v>
       </c>
       <c r="B80" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39">
         <v>3</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
@@ -4568,71 +4575,87 @@
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="40"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="40">
+        <v>45078</v>
+      </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="40">
+        <v>45108</v>
+      </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="40">
+        <v>45139</v>
+      </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="40">
+        <v>45170</v>
+      </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4648,7 +4671,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4664,7 +4687,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4680,7 +4703,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4696,7 +4719,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4712,7 +4735,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4728,7 +4751,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4744,7 +4767,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4760,7 +4783,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4776,7 +4799,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4792,7 +4815,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4808,7 +4831,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4824,7 +4847,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4840,7 +4863,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4856,7 +4879,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4872,7 +4895,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4888,7 +4911,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4904,7 +4927,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4920,7 +4943,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4936,7 +4959,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4952,7 +4975,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4968,7 +4991,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4984,7 +5007,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5000,7 +5023,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5016,7 +5039,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5032,7 +5055,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5048,7 +5071,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5064,7 +5087,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5080,7 +5103,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5096,7 +5119,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5112,7 +5135,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5128,7 +5151,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5144,7 +5167,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5160,7 +5183,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5176,7 +5199,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5192,7 +5215,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5208,7 +5231,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5224,7 +5247,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5240,7 +5263,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5256,7 +5279,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5272,7 +5295,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5288,7 +5311,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5304,7 +5327,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5320,7 +5343,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5336,7 +5359,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5352,7 +5375,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5368,7 +5391,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="41"/>
       <c r="B131" s="15"/>
       <c r="C131" s="42"/>
@@ -5399,10 +5422,10 @@
     <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5425,34 +5448,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K73"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A6" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A6" activePane="bottomLeft"/>
       <selection activeCell="O5" sqref="O5"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5473,7 +5496,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5491,7 +5514,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5513,7 +5536,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5521,7 +5544,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5534,7 +5557,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -5551,7 +5574,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5586,7 +5609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5595,7 +5618,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>42.674999999999997</v>
+        <v>39.674999999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5605,12 +5628,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>42.545000000000002</v>
+        <v>40.545000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -5632,7 +5655,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43404</v>
       </c>
@@ -5654,7 +5677,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
         <v>55</v>
       </c>
@@ -5672,7 +5695,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>44804</v>
       </c>
@@ -5696,7 +5719,7 @@
         <v>44775</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>44834</v>
       </c>
@@ -5714,7 +5737,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>44865</v>
       </c>
@@ -5736,7 +5759,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
         <v>58</v>
       </c>
@@ -5754,7 +5777,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>44958</v>
       </c>
@@ -5778,7 +5801,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>45047</v>
       </c>
@@ -5802,11 +5825,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
-      <c r="B19" s="20"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="39"/>
+      <c r="D19" s="39">
+        <v>3</v>
+      </c>
       <c r="E19" s="9"/>
       <c r="F19" s="20"/>
       <c r="G19" s="13" t="str">
@@ -5816,11 +5845,17 @@
       <c r="H19" s="39"/>
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="20"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
-      <c r="B20" s="20"/>
+      <c r="K19" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C20" s="13"/>
       <c r="D20" s="39"/>
       <c r="E20" s="9"/>
@@ -5829,12 +5864,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H20" s="39"/>
+      <c r="H20" s="39">
+        <v>2</v>
+      </c>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K20" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
@@ -5850,7 +5889,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -5866,7 +5905,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -5882,7 +5921,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -5898,7 +5937,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -5914,7 +5953,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -5930,7 +5969,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -5946,7 +5985,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -5962,7 +6001,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -5978,7 +6017,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -5994,7 +6033,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6010,7 +6049,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6026,7 +6065,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6042,7 +6081,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6058,7 +6097,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6074,7 +6113,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6090,7 +6129,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6106,7 +6145,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6122,7 +6161,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6138,7 +6177,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6154,7 +6193,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6170,7 +6209,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6186,7 +6225,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6202,7 +6241,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6218,7 +6257,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6234,7 +6273,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6250,7 +6289,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6266,7 +6305,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6282,7 +6321,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6298,7 +6337,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6314,7 +6353,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6330,7 +6369,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6346,7 +6385,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6362,7 +6401,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6378,7 +6417,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6394,7 +6433,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6410,7 +6449,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6426,7 +6465,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6442,7 +6481,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6458,7 +6497,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6474,7 +6513,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6490,7 +6529,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6506,7 +6545,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6522,7 +6561,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6538,7 +6577,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6554,7 +6593,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6570,7 +6609,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6586,7 +6625,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6602,7 +6641,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6618,7 +6657,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6634,7 +6673,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -6650,7 +6689,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -6666,7 +6705,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="41"/>
       <c r="B73" s="15"/>
       <c r="C73" s="42"/>
@@ -6697,10 +6736,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6723,28 +6762,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -6757,7 +6796,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6786,7 +6825,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>42.674999999999997</v>
       </c>
@@ -6810,17 +6849,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6841,7 +6880,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6868,7 +6907,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6894,7 +6933,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6920,7 +6959,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6946,7 +6985,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6972,7 +7011,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6998,7 +7037,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7024,7 +7063,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7050,7 +7089,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7070,7 +7109,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7090,7 +7129,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7110,7 +7149,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7131,7 +7170,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7152,7 +7191,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7173,7 +7212,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7194,7 +7233,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7215,7 +7254,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7236,7 +7275,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7257,7 +7296,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7278,7 +7317,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7299,7 +7338,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7320,7 +7359,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7341,7 +7380,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7362,7 +7401,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7383,7 +7422,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7404,7 +7443,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7425,7 +7464,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7446,7 +7485,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7467,7 +7506,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7488,7 +7527,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7509,7 +7548,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7530,7 +7569,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7539,7 +7578,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7548,7 +7587,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7557,7 +7596,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7566,7 +7605,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7575,7 +7614,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7584,7 +7623,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7593,7 +7632,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7602,7 +7641,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7611,7 +7650,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7620,7 +7659,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7629,7 +7668,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7638,7 +7677,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7647,7 +7686,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7656,7 +7695,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7665,7 +7704,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7674,7 +7713,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7683,7 +7722,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7692,7 +7731,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7701,7 +7740,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7710,7 +7749,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7719,7 +7758,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7728,7 +7767,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7737,7 +7776,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7746,7 +7785,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7755,7 +7794,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7764,7 +7803,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7773,7 +7812,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7782,7 +7821,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7791,7 +7830,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
